--- a/Pull Request Here/Architecture of the Rim - 2493347264/Architecture of the Rim - 2493347264.xlsx
+++ b/Pull Request Here/Architecture of the Rim - 2493347264/Architecture of the Rim - 2493347264.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\Architecture of the Rim - 2493347264\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1248BD1C-7E79-4171-9E50-2FB89A7C8B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94FF08D-E1EC-4577-AC5E-F0AADBC0040F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9735" yWindow="765" windowWidth="17880" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,124 +22,125 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
+    <t>Class [Not chosen]</t>
+  </si>
+  <si>
+    <t>Node [Not chosen]</t>
+  </si>
+  <si>
+    <t>Required Mods [Not chosen]</t>
+  </si>
+  <si>
+    <t>English [Source string]</t>
+  </si>
+  <si>
+    <t>Korean (한국어) [Translation]</t>
+  </si>
+  <si>
+    <t>ThingDef+AR_EaveWoody.label</t>
+  </si>
+  <si>
+    <t>ThingDef</t>
+  </si>
+  <si>
+    <t>AR_EaveWoody.label</t>
+  </si>
+  <si>
+    <t>Woody Eave</t>
+  </si>
+  <si>
+    <t>ThingDef+AR_EaveWoody.description</t>
+  </si>
+  <si>
+    <t>AR_EaveWoody.description</t>
+  </si>
+  <si>
+    <t>An impassable wall. Capable of holding up a roof.</t>
+  </si>
+  <si>
+    <t>ThingDef+AR_EaveStony.label</t>
+  </si>
+  <si>
+    <t>AR_EaveStony.label</t>
+  </si>
+  <si>
+    <t>Stony Eave</t>
+  </si>
+  <si>
+    <t>ThingDef+AR_EaveStony.description</t>
+  </si>
+  <si>
+    <t>AR_EaveStony.description</t>
+  </si>
+  <si>
+    <t>ThingDef+AR_Eave.label</t>
+  </si>
+  <si>
+    <t>AR_Eave.label</t>
+  </si>
+  <si>
+    <t>Eave</t>
+  </si>
+  <si>
+    <t>ThingDef+AR_Eave.description</t>
+  </si>
+  <si>
+    <t>AR_Eave.description</t>
+  </si>
+  <si>
+    <t>ThingDef+AR_Rafter.label</t>
+  </si>
+  <si>
+    <t>AR_Rafter.label</t>
+  </si>
+  <si>
+    <t>ThingDef+AR_Rafter.description</t>
+  </si>
+  <si>
+    <t>AR_Rafter.description</t>
+  </si>
+  <si>
+    <t>나무 처마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌 처마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서까래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rafter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An impassable wall. Capable of holding up a roof.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금속 처마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 위에 지을 수 있는 목재 구조물. 추가적인 기능은 없지만 위에서 본다면 아름답습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 위에 지을 수 있는 금속 구조물. 추가적인 기능은 없지만 위에서 본다면 아름답습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 위에 지을 수 있는 구조물. 추가적인 기능은 없지만 위에서 본다면 아름답습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Class+Node [(Identifier (Key)]</t>
-  </si>
-  <si>
-    <t>Class [Not chosen]</t>
-  </si>
-  <si>
-    <t>Node [Not chosen]</t>
-  </si>
-  <si>
-    <t>Required Mods [Not chosen]</t>
-  </si>
-  <si>
-    <t>English [Source string]</t>
-  </si>
-  <si>
-    <t>Korean (한국어) [Translation]</t>
-  </si>
-  <si>
-    <t>ThingDef+AR_EaveWoody.label</t>
-  </si>
-  <si>
-    <t>ThingDef</t>
-  </si>
-  <si>
-    <t>AR_EaveWoody.label</t>
-  </si>
-  <si>
-    <t>Woody Eave</t>
-  </si>
-  <si>
-    <t>ThingDef+AR_EaveWoody.description</t>
-  </si>
-  <si>
-    <t>AR_EaveWoody.description</t>
-  </si>
-  <si>
-    <t>An impassable wall. Capable of holding up a roof.</t>
-  </si>
-  <si>
-    <t>ThingDef+AR_EaveStony.label</t>
-  </si>
-  <si>
-    <t>AR_EaveStony.label</t>
-  </si>
-  <si>
-    <t>Stony Eave</t>
-  </si>
-  <si>
-    <t>ThingDef+AR_EaveStony.description</t>
-  </si>
-  <si>
-    <t>AR_EaveStony.description</t>
-  </si>
-  <si>
-    <t>ThingDef+AR_Eave.label</t>
-  </si>
-  <si>
-    <t>AR_Eave.label</t>
-  </si>
-  <si>
-    <t>Eave</t>
-  </si>
-  <si>
-    <t>ThingDef+AR_Eave.description</t>
-  </si>
-  <si>
-    <t>AR_Eave.description</t>
-  </si>
-  <si>
-    <t>ThingDef+AR_Rafter.label</t>
-  </si>
-  <si>
-    <t>AR_Rafter.label</t>
-  </si>
-  <si>
-    <t>ThingDef+AR_Rafter.description</t>
-  </si>
-  <si>
-    <t>AR_Rafter.description</t>
-  </si>
-  <si>
-    <t>나무 처마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌 처마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서까래</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rafter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>An impassable wall. Capable of holding up a roof.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽 위에 지을 수 있는 목재 구조물. 추가적인 기능은 없지만 위에서 본다면 아름다워 보입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽 위에 지을 수 있는 구조물. 추가적인 기능은 없지만 위에서 본다면 아름다워 보입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>금속 처마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽 위에 지을 수 있는 금속 구조물. 추가적인 기능은 없지만 위에서 본다면 아름다워 보입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽 위에 지을 수 있는 석재 구조물. 추가적인 기능은 없지만 위에서 본다면 아름다워 보입니다.\n\n다른 처마와 달리 울퉁불퉁한 모습이 특징입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 위에 지을 수 있는 석재 구조물. 추가적인 기능은 없지만 위에서 본다면 아름답습니다.\n\n다른 처마와 달리 울퉁불퉁한 모습이 특징입니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -517,53 +518,53 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
@@ -571,33 +572,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>36</v>
@@ -605,70 +606,70 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
